--- a/earlywarning-pom/earlywarning-config/src/baf-instances/18_User.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/18_User.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -152,18 +152,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>U0I2199</t>
-  </si>
-  <si>
-    <t>Marta</t>
-  </si>
-  <si>
-    <t>Meacci</t>
-  </si>
-  <si>
-    <t>marta.meacci@accenture.com</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -192,6 +180,9 @@
   </si>
   <si>
     <t>administratorProfile</t>
+  </si>
+  <si>
+    <t>Intesa03*</t>
   </si>
 </sst>
 </file>
@@ -413,7 +404,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -439,6 +430,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -494,6 +533,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -535,6 +622,54 @@
             <a:srgbClr val="000000"/>
           </a:solidFill>
           <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9620250"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
           <a:headEnd/>
           <a:tailEnd/>
         </a:ln>
@@ -808,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -853,44 +988,26 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -926,30 +1043,30 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3"/>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C4"/>
     </row>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/18_User.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/18_User.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Groups" sheetId="2" r:id="rId2"/>
     <sheet name="User_Group" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>Username</t>
   </si>
@@ -158,12 +158,6 @@
     <t>it</t>
   </si>
   <si>
-    <t>claimsanalyst</t>
-  </si>
-  <si>
-    <t>Claims Analyst</t>
-  </si>
-  <si>
     <t>U0I2197</t>
   </si>
   <si>
@@ -176,20 +170,200 @@
     <t>marco.calabretta@accenture.com</t>
   </si>
   <si>
-    <t>productionProfile</t>
-  </si>
-  <si>
-    <t>administratorProfile</t>
-  </si>
-  <si>
     <t>Intesa03*</t>
+  </si>
+  <si>
+    <t>U0H1612</t>
+  </si>
+  <si>
+    <t>user01</t>
+  </si>
+  <si>
+    <t>Umberto</t>
+  </si>
+  <si>
+    <t>Stradella</t>
+  </si>
+  <si>
+    <t>umberto.stradella@accenture.com</t>
+  </si>
+  <si>
+    <t>U020447</t>
+  </si>
+  <si>
+    <t>Domenico</t>
+  </si>
+  <si>
+    <t>Fileppo</t>
+  </si>
+  <si>
+    <t>domenico.fileppo@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U321556</t>
+  </si>
+  <si>
+    <t>Federica</t>
+  </si>
+  <si>
+    <t>Recchia</t>
+  </si>
+  <si>
+    <t>federica.recchia@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U028470</t>
+  </si>
+  <si>
+    <t>Fiorella</t>
+  </si>
+  <si>
+    <t>Salvucci</t>
+  </si>
+  <si>
+    <t>fiorella.salvucci@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U343789</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Tripodi</t>
+  </si>
+  <si>
+    <t>elisa.tripodi@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U353303</t>
+  </si>
+  <si>
+    <t>Picardi</t>
+  </si>
+  <si>
+    <t>marco.picardi@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U028197</t>
+  </si>
+  <si>
+    <t>Fulvio</t>
+  </si>
+  <si>
+    <t>Campana</t>
+  </si>
+  <si>
+    <t>fulvio.campana@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U052562</t>
+  </si>
+  <si>
+    <t>Guidoluciano</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>guidoluciano.genero@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U026313</t>
+  </si>
+  <si>
+    <t>Davide</t>
+  </si>
+  <si>
+    <t>Micheluzzi</t>
+  </si>
+  <si>
+    <t>davide.micheluzzi@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U0I2199</t>
+  </si>
+  <si>
+    <t>Marta</t>
+  </si>
+  <si>
+    <t>Meacci</t>
+  </si>
+  <si>
+    <t>marta.meacci@accenture.com</t>
+  </si>
+  <si>
+    <t>U0I1574</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Fiume</t>
+  </si>
+  <si>
+    <t>francesca.fiume@accenture.com</t>
+  </si>
+  <si>
+    <t>U357577</t>
+  </si>
+  <si>
+    <t>Fabio</t>
+  </si>
+  <si>
+    <t>Garzaniti</t>
+  </si>
+  <si>
+    <t>fabio.garzaniti@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U344184</t>
+  </si>
+  <si>
+    <t>Alessandra</t>
+  </si>
+  <si>
+    <t>Pettavino</t>
+  </si>
+  <si>
+    <t>alessandra.pettavino@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U044996</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Libri</t>
+  </si>
+  <si>
+    <t>andrea.libri@intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>U1E0394</t>
+  </si>
+  <si>
+    <t>Gabriele</t>
+  </si>
+  <si>
+    <t>Morvillo</t>
+  </si>
+  <si>
+    <t>gabriele.morvillo@accenture.com</t>
+  </si>
+  <si>
+    <t>BIB</t>
+  </si>
+  <si>
+    <t>Italia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -298,6 +472,14 @@
       <color indexed="9"/>
       <name val="Trebuchet MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -485,6 +667,198 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -500,7 +874,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -543,7 +917,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -557,6 +931,198 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9572625"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9601200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9601200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -645,6 +1211,198 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9620250"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9620250"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9620250"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9620250"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -943,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -988,25 +1746,409 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1019,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -1043,32 +2185,25 @@
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4"/>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
